--- a/simulation_data/one_step_algorithm/1s_error_level_15_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_15_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.0068638518412</v>
+        <v>89.10512581809098</v>
       </c>
       <c r="D2" t="n">
-        <v>5.069700911683991</v>
+        <v>4.731084538003832</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>87.9959681527597</v>
+        <v>88.22382431822516</v>
       </c>
       <c r="D3" t="n">
-        <v>5.395160424956444</v>
+        <v>5.06351520741637</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.14910079165992</v>
+        <v>87.46331446515413</v>
       </c>
       <c r="D4" t="n">
-        <v>5.643970174867418</v>
+        <v>5.698368331403511</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>85.39942943537999</v>
+        <v>86.54210852400047</v>
       </c>
       <c r="D5" t="n">
-        <v>5.634497552378827</v>
+        <v>5.673735275610543</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.90134253404085</v>
+        <v>85.99328893030753</v>
       </c>
       <c r="D6" t="n">
-        <v>5.385872897620752</v>
+        <v>5.642725027032832</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>83.75265717324791</v>
+        <v>83.94657473329788</v>
       </c>
       <c r="D7" t="n">
-        <v>5.836838279871834</v>
+        <v>6.041470818266069</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.49550842064508</v>
+        <v>82.73923611986416</v>
       </c>
       <c r="D8" t="n">
-        <v>4.690208755840581</v>
+        <v>6.945352417500925</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>81.85480660610752</v>
+        <v>81.41272768225338</v>
       </c>
       <c r="D9" t="n">
-        <v>5.585375913232528</v>
+        <v>6.733190451894211</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.53550308508402</v>
+        <v>81.08406828990914</v>
       </c>
       <c r="D10" t="n">
-        <v>5.576886097352257</v>
+        <v>6.421409705581312</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.48703627605084</v>
+        <v>80.40900150515408</v>
       </c>
       <c r="D11" t="n">
-        <v>5.523001694279814</v>
+        <v>4.365395128588393</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.51663753814404</v>
+        <v>78.72485092991343</v>
       </c>
       <c r="D12" t="n">
-        <v>6.35500575807169</v>
+        <v>5.620426128448669</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.33632992325957</v>
+        <v>78.05310088708669</v>
       </c>
       <c r="D13" t="n">
-        <v>5.860584695850126</v>
+        <v>5.661834471604522</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>76.80327716978459</v>
+        <v>75.81651858649573</v>
       </c>
       <c r="D14" t="n">
-        <v>6.37204837218214</v>
+        <v>6.52414021384018</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.11270751820099</v>
+        <v>76.56787289340215</v>
       </c>
       <c r="D15" t="n">
-        <v>6.288155180345401</v>
+        <v>5.909138525345336</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.08469258423172</v>
+        <v>75.09098612570909</v>
       </c>
       <c r="D16" t="n">
-        <v>6.882539214649723</v>
+        <v>6.568386158639921</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.91109249641589</v>
+        <v>72.69912434794793</v>
       </c>
       <c r="D17" t="n">
-        <v>6.390574014142207</v>
+        <v>7.155270421528419</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>72.4702753537041</v>
+        <v>73.40577244559069</v>
       </c>
       <c r="D18" t="n">
-        <v>7.007421348312675</v>
+        <v>6.587972860406396</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.98721033417584</v>
+        <v>72.18972580502431</v>
       </c>
       <c r="D19" t="n">
-        <v>6.876522323761741</v>
+        <v>7.544977162704416</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.40105870661297</v>
+        <v>70.16499150964809</v>
       </c>
       <c r="D20" t="n">
-        <v>7.46707304739362</v>
+        <v>7.227264744169479</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>69.52743432715675</v>
+        <v>69.6562041643182</v>
       </c>
       <c r="D21" t="n">
-        <v>8.081704122946714</v>
+        <v>6.96469236700981</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>68.75521475672154</v>
+        <v>69.0414259266789</v>
       </c>
       <c r="D22" t="n">
-        <v>6.002905106646214</v>
+        <v>7.282638663569552</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22645195881576</v>
+        <v>68.21884074156065</v>
       </c>
       <c r="D23" t="n">
-        <v>7.727242100487288</v>
+        <v>6.986878595508249</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.80973020754831</v>
+        <v>68.63676989233826</v>
       </c>
       <c r="D24" t="n">
-        <v>7.574333509099347</v>
+        <v>6.222088166568104</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>64.9183971263855</v>
+        <v>66.52307376617046</v>
       </c>
       <c r="D25" t="n">
-        <v>7.421746330751449</v>
+        <v>8.299823397365644</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.40238334718964</v>
+        <v>65.4440481644761</v>
       </c>
       <c r="D26" t="n">
-        <v>6.89233547040759</v>
+        <v>8.131978212795845</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.64281628875003</v>
+        <v>63.74539752383092</v>
       </c>
       <c r="D27" t="n">
-        <v>7.625953105304882</v>
+        <v>7.460036421880492</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.21960592155787</v>
+        <v>62.44609230786724</v>
       </c>
       <c r="D28" t="n">
-        <v>7.354613254372256</v>
+        <v>8.259663965627004</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>61.66263662368532</v>
+        <v>62.45935232896546</v>
       </c>
       <c r="D29" t="n">
-        <v>7.24601084319775</v>
+        <v>7.81445769872214</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.96672584151183</v>
+        <v>60.45626980638799</v>
       </c>
       <c r="D30" t="n">
-        <v>7.346668795779976</v>
+        <v>7.994612176686872</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.6362624359715</v>
+        <v>60.70533980880224</v>
       </c>
       <c r="D31" t="n">
-        <v>6.99370471219922</v>
+        <v>7.755512286478633</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>57.70401018661512</v>
+        <v>59.3685407999923</v>
       </c>
       <c r="D32" t="n">
-        <v>8.460250301913918</v>
+        <v>7.230008689615169</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>57.45631965303718</v>
+        <v>59.28901488124738</v>
       </c>
       <c r="D33" t="n">
-        <v>7.675271950716805</v>
+        <v>6.933589710295092</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>55.81291454318444</v>
+        <v>57.77408600270353</v>
       </c>
       <c r="D34" t="n">
-        <v>8.144955854894839</v>
+        <v>8.06932205443109</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.81429068240043</v>
+        <v>56.27752605662842</v>
       </c>
       <c r="D35" t="n">
-        <v>7.728990855918685</v>
+        <v>8.27905932320766</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.5004552144631</v>
+        <v>54.24563437619426</v>
       </c>
       <c r="D36" t="n">
-        <v>10.77609553510434</v>
+        <v>7.910535266807625</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.22293200192738</v>
+        <v>53.89615452760076</v>
       </c>
       <c r="D37" t="n">
-        <v>7.889532393132358</v>
+        <v>8.333309451815552</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.45106208711532</v>
+        <v>53.48378797971014</v>
       </c>
       <c r="D38" t="n">
-        <v>7.390013705000085</v>
+        <v>8.258975431940572</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.66734268773352</v>
+        <v>51.49368743402479</v>
       </c>
       <c r="D39" t="n">
-        <v>8.715023848167071</v>
+        <v>9.00578879591499</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.49948580026012</v>
+        <v>49.51348910757029</v>
       </c>
       <c r="D40" t="n">
-        <v>7.695905459173214</v>
+        <v>9.49660992869225</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.06600680998395</v>
+        <v>50.15622917573945</v>
       </c>
       <c r="D41" t="n">
-        <v>9.602798519334391</v>
+        <v>9.579956941943855</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.97664265549864</v>
+        <v>48.97246808697919</v>
       </c>
       <c r="D42" t="n">
-        <v>8.192558454175595</v>
+        <v>8.55493281398881</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.67106470356244</v>
+        <v>47.13934095752639</v>
       </c>
       <c r="D43" t="n">
-        <v>9.111763359605675</v>
+        <v>8.577427856236547</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.96962655434542</v>
+        <v>46.97099317602395</v>
       </c>
       <c r="D44" t="n">
-        <v>8.012547110849054</v>
+        <v>8.41191226148254</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.08321600656782</v>
+        <v>46.2171464682576</v>
       </c>
       <c r="D45" t="n">
-        <v>7.847749942193187</v>
+        <v>9.00988573645343</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.31312228772189</v>
+        <v>46.8698249662109</v>
       </c>
       <c r="D46" t="n">
-        <v>9.827250866773566</v>
+        <v>8.772129810348204</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.08395369470889</v>
+        <v>43.07333801150964</v>
       </c>
       <c r="D47" t="n">
-        <v>8.998955541160285</v>
+        <v>7.8011824715432</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>41.77147200877074</v>
+        <v>44.5933474301052</v>
       </c>
       <c r="D48" t="n">
-        <v>9.268206353064448</v>
+        <v>8.136469254314756</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>40.99574867014073</v>
+        <v>40.02153889379839</v>
       </c>
       <c r="D49" t="n">
-        <v>10.72849516807582</v>
+        <v>9.43894220317646</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.13082431829893</v>
+        <v>40.93063944741449</v>
       </c>
       <c r="D50" t="n">
-        <v>8.901744630732646</v>
+        <v>9.053064362326396</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.44141550698737</v>
+        <v>39.10261804311777</v>
       </c>
       <c r="D51" t="n">
-        <v>8.982769593931136</v>
+        <v>11.20101922041567</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.98212940098706</v>
+        <v>38.86511472049014</v>
       </c>
       <c r="D52" t="n">
-        <v>9.50316961115154</v>
+        <v>10.8443124522281</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.12971613092419</v>
+        <v>36.23588683436526</v>
       </c>
       <c r="D53" t="n">
-        <v>8.785917362316077</v>
+        <v>10.18085795979034</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.90622269600209</v>
+        <v>36.81136471496157</v>
       </c>
       <c r="D54" t="n">
-        <v>8.865678689881074</v>
+        <v>8.919434404896753</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.23505026039347</v>
+        <v>36.13089001151126</v>
       </c>
       <c r="D55" t="n">
-        <v>9.08049553631461</v>
+        <v>8.326295511187887</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.85966071771475</v>
+        <v>33.96196808961967</v>
       </c>
       <c r="D56" t="n">
-        <v>10.67002059143154</v>
+        <v>9.594109941132714</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.51641968841339</v>
+        <v>35.43108512309743</v>
       </c>
       <c r="D57" t="n">
-        <v>11.83020339599769</v>
+        <v>9.601672209120109</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.21255299993152</v>
+        <v>33.85432345531419</v>
       </c>
       <c r="D58" t="n">
-        <v>11.60091141767207</v>
+        <v>9.042001604137326</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>29.67701022134852</v>
+        <v>31.75965756110132</v>
       </c>
       <c r="D59" t="n">
-        <v>11.13906449758095</v>
+        <v>9.316479868310552</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.98610039147244</v>
+        <v>31.85311391815215</v>
       </c>
       <c r="D60" t="n">
-        <v>11.05986221151553</v>
+        <v>9.835716239027994</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.7066298156296</v>
+        <v>29.21842330214178</v>
       </c>
       <c r="D61" t="n">
-        <v>10.20458092334615</v>
+        <v>10.27690167199895</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>28.29794625244482</v>
+        <v>27.41316744600444</v>
       </c>
       <c r="D62" t="n">
-        <v>11.07651088193099</v>
+        <v>11.30223935579682</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.4238479085333</v>
+        <v>27.0941156376066</v>
       </c>
       <c r="D63" t="n">
-        <v>9.226621546064159</v>
+        <v>11.34312015177007</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>26.17347108625318</v>
+        <v>26.09707986254432</v>
       </c>
       <c r="D64" t="n">
-        <v>12.44458785495653</v>
+        <v>11.06176428204103</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.3791448128077</v>
+        <v>24.39816937979329</v>
       </c>
       <c r="D65" t="n">
-        <v>9.420323767960312</v>
+        <v>11.52248066636695</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.61436674845354</v>
+        <v>26.04253180947567</v>
       </c>
       <c r="D66" t="n">
-        <v>9.066699438288904</v>
+        <v>9.953150432558751</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.4971394059316</v>
+        <v>22.90221251801526</v>
       </c>
       <c r="D67" t="n">
-        <v>9.885141548455053</v>
+        <v>10.41783116200494</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>21.16519004884639</v>
+        <v>23.35422240182434</v>
       </c>
       <c r="D68" t="n">
-        <v>11.85785535001359</v>
+        <v>10.44856999233006</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>20.12534383794763</v>
+        <v>22.62794698372693</v>
       </c>
       <c r="D69" t="n">
-        <v>12.20100824789983</v>
+        <v>9.669184789910188</v>
       </c>
     </row>
   </sheetData>
